--- a/data/revenues.xlsx
+++ b/data/revenues.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Revenues" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>

--- a/data/revenues.xlsx
+++ b/data/revenues.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -29,6 +29,84 @@
   </si>
   <si>
     <t>category</t>
+  </si>
+  <si>
+    <t>baseAmount</t>
+  </si>
+  <si>
+    <t>gstRate</t>
+  </si>
+  <si>
+    <t>gstAmount</t>
+  </si>
+  <si>
+    <t>hsn</t>
+  </si>
+  <si>
+    <t>invoiceNumber</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>Product Sales</t>
+  </si>
+  <si>
+    <t>118000</t>
+  </si>
+  <si>
+    <t>2025-05-05T08:48:51.849Z</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>8471</t>
+  </si>
+  <si>
+    <t>SINV-001</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>Consulting Services</t>
+  </si>
+  <si>
+    <t>59000</t>
+  </si>
+  <si>
+    <t>Consulting</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>9983</t>
+  </si>
+  <si>
+    <t>SINV-002</t>
+  </si>
+  <si>
+    <t>Export Sales</t>
+  </si>
+  <si>
+    <t>200000</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>SINV-003</t>
   </si>
 </sst>
 </file>
@@ -419,17 +497,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:L4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -447,6 +532,138 @@
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
